--- a/صيدليات دكتور مصطفي طلعت_2025-12-25_11-32.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2025-12-25_11-32.xlsx
@@ -71,16 +71,34 @@
     <t>375.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>12:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
     <t>0:2</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
   </si>
   <si>
     <t>TEMPO COOL</t>
@@ -938,18 +956,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -958,14 +976,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -975,11 +993,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>15</v>
@@ -991,31 +1009,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1024,28 +1042,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>15</v>
@@ -1057,28 +1075,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>15</v>
@@ -1090,68 +1108,134 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="26.25" customHeight="1">
-      <c r="N17" s="13">
-        <v>1174.595</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>46</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>47</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>48</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>32</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>49</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>51</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>44</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>32</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>49</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="26.25" customHeight="1">
+      <c r="N19" s="13">
+        <v>1303.595</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>52</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>53</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>54</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1210,10 +1294,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
